--- a/results/table1/table_sanity.xlsx
+++ b/results/table1/table_sanity.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -467,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,21 +486,33 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Grouped by In-Hospital Mortality</t>
+          <t>Grouped by SOFA_cat</t>
         </is>
       </c>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Died</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Survived</t>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>-89.0</t>
         </is>
       </c>
     </row>
@@ -505,10 +524,16 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>14202</v>
+        <v>1219</v>
       </c>
       <c r="D4" t="n">
-        <v>43486</v>
+        <v>7129</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12405</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7891</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +549,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14202 (100.0)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>75 (0.5)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1034 (7.3)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1698 (12.0)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1579 (11.1)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -537,17 +576,15 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>75 (1.7)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1144 (4.7)</t>
+          <t>-89.0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891 (100.0)</t>
         </is>
       </c>
     </row>
@@ -555,55 +592,49 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1034 (23.6)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6095 (25.1)</t>
-        </is>
-      </c>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12405 (100.0)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1698 (38.7)</t>
-        </is>
-      </c>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10707 (44.1)</t>
-        </is>
-      </c>
+          <t>7129 (100.0)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>-89.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1579 (36.0)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6312 (26.0)</t>
-        </is>
-      </c>
+          <t>1219 (100.0)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -618,12 +649,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6378 (44.9)</t>
+          <t>959 (2.9)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26573 (61.1)</t>
+          <t>5560 (16.9)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9057 (27.5)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5167 (15.7)</t>
         </is>
       </c>
     </row>
@@ -636,12 +677,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7824 (55.1)</t>
+          <t>260 (1.1)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16913 (38.9)</t>
+          <t>1569 (6.3)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3348 (13.5)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2724 (11.0)</t>
         </is>
       </c>
     </row>
@@ -658,12 +709,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12408 (87.4)</t>
+          <t>1193 (2.3)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>40548 (93.2)</t>
+          <t>7044 (13.3)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12153 (22.9)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7558 (14.3)</t>
         </is>
       </c>
     </row>
@@ -676,12 +737,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1794 (12.6)</t>
+          <t>26 (0.5)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2938 (6.8)</t>
+          <t>85 (1.8)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>252 (5.3)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>333 (7.0)</t>
         </is>
       </c>
     </row>
@@ -698,12 +769,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5830 (41.1)</t>
+          <t>1048 (3.3)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25890 (59.5)</t>
+          <t>5505 (17.4)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8980 (28.3)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5035 (15.9)</t>
         </is>
       </c>
     </row>
@@ -716,20 +797,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8372 (58.9)</t>
+          <t>171 (0.7)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17596 (40.5)</t>
+          <t>1624 (6.3)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3425 (13.2)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2856 (11.0)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/results/table1/table_sanity.xlsx
+++ b/results/table1/table_sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Projekte/Boston Celi/1 Causal Inference/Race Interventions/mit-tmle/results/table1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39620331-6EE7-5B4C-A7FA-9269DE957396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4565D9-8B9F-E447-8E8F-76E7B22D53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,25 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>counts</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>13,745</t>
-  </si>
-  <si>
-    <t>counts 2</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>4,287 (23.9%)</t>
   </si>
@@ -641,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7866DF-60D3-8B45-B772-A83C43B16640}">
-  <dimension ref="B4:N63"/>
+  <dimension ref="B7:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:J63"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -652,184 +634,54 @@
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>SUBSTITUTE(LEFT(D6,FIND("(",D6)-2),",","")</f>
-        <v>4287</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" ref="E7:K7" si="0">LEFT(E6,FIND("(",E6)-2)</f>
-        <v>933</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>6,546</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,989</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>5,049</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2,952</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,712</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2,498</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>SUBSTITUTE(D7,",","")</f>
-        <v>4287</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" ref="E8:K8" si="1">SUBSTITUTE(E7,",","")</f>
-        <v>933</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>6546</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1989</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>5049</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2952</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1712</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2498</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM(D8+E8)</f>
-        <v>5220</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <f>SUM(F8+G8)</f>
-        <v>8535</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <f>SUM(H8+I8)</f>
-        <v>8001</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9" si="2">SUM(J8+K8)</f>
-        <v>4210</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <f>(D8/D9)</f>
-        <v>0.82126436781609191</v>
-      </c>
-      <c r="E11" s="5">
-        <f>(E8/D9)</f>
-        <v>0.17873563218390803</v>
-      </c>
-      <c r="F11" s="5">
-        <f>(F8/F9)</f>
-        <v>0.76695957820738137</v>
-      </c>
-      <c r="G11" s="5">
-        <f>(G8/F9)</f>
-        <v>0.23304042179261863</v>
-      </c>
-      <c r="H11" s="5">
-        <f>(H8/H9)</f>
-        <v>0.63104611923509557</v>
-      </c>
-      <c r="I11" s="5">
-        <f>(I8/H9)</f>
-        <v>0.36895388076490437</v>
-      </c>
-      <c r="J11" s="5">
-        <f>(J8/J9)</f>
-        <v>0.40665083135391922</v>
-      </c>
-      <c r="K11" s="5">
-        <f>(K8/J9)</f>
-        <v>0.59334916864608078</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="25">
       <c r="D12" s="3"/>
     </row>
     <row r="14" spans="2:13" ht="48">
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -842,65 +694,65 @@
     </row>
     <row r="15" spans="2:13" ht="28">
       <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="32">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="48">
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -913,65 +765,65 @@
     </row>
     <row r="18" spans="2:10" ht="28">
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="32">
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="32">
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -984,65 +836,65 @@
     </row>
     <row r="21" spans="2:10" ht="28">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="32">
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -1051,31 +903,31 @@
         <v>13,745</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:J26" si="3">LEFT(D15,FIND("(",D15)-2)</f>
+        <f t="shared" ref="D25:J26" si="0">LEFT(D15,FIND("(",D15)-2)</f>
         <v>1,831</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9,673</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2,590</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2,919</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,545</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>232</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>412</v>
       </c>
     </row>
@@ -1085,31 +937,31 @@
         <v>4,201</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>976</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6,251</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,933</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4,769</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2,645</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,690</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2,270</v>
       </c>
     </row>
@@ -1119,31 +971,31 @@
         <v>17,664</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:J29" si="4">LEFT(D18,FIND("(",D18)-2)</f>
+        <f t="shared" ref="D28:J29" si="1">LEFT(D18,FIND("(",D18)-2)</f>
         <v>2,726</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>14,904</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4,197</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6,652</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3,570</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1,322</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1,915</v>
       </c>
     </row>
@@ -1153,31 +1005,31 @@
         <v>282</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1,020</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>326</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1,036</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>767</v>
       </c>
     </row>
@@ -1187,31 +1039,31 @@
         <v>13,659</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31:J32" si="5">LEFT(D21,FIND("(",D21)-2)</f>
+        <f t="shared" ref="D31:J32" si="2">LEFT(D21,FIND("(",D21)-2)</f>
         <v>1,874</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9,378</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,534</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,639</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1,238</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
@@ -1221,40 +1073,40 @@
         <v>4,287</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>933</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6,546</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1,989</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5,049</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,952</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1,712</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,498</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:14">
@@ -1263,31 +1115,31 @@
         <v>13745</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:J36" si="6">SUBSTITUTE(D25,",","")</f>
+        <f t="shared" ref="D35:J36" si="3">SUBSTITUTE(D25,",","")</f>
         <v>1831</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9673</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2590</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2919</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1545</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
       <c r="K35">
@@ -1313,31 +1165,31 @@
         <v>4201</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>976</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6251</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1933</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4769</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2645</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1690</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2270</v>
       </c>
       <c r="K36">
@@ -1363,47 +1215,47 @@
         <v>17664</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ref="D38:J39" si="7">SUBSTITUTE(D28,",","")</f>
+        <f t="shared" ref="D38:J39" si="4">SUBSTITUTE(D28,",","")</f>
         <v>2726</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>14904</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4197</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6652</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3570</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1322</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1915</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K42" si="8">SUM(C38+D38)</f>
+        <f t="shared" ref="K38:K42" si="5">SUM(C38+D38)</f>
         <v>20390</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L42" si="9">SUM(E38+F38)</f>
+        <f t="shared" ref="L38:L42" si="6">SUM(E38+F38)</f>
         <v>19101</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:M42" si="10">SUM(G38+H38)</f>
+        <f t="shared" ref="M38:M42" si="7">SUM(G38+H38)</f>
         <v>10222</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N42" si="11">SUM(I38+J38)</f>
+        <f t="shared" ref="N38:N42" si="8">SUM(I38+J38)</f>
         <v>3237</v>
       </c>
     </row>
@@ -1413,47 +1265,47 @@
         <v>282</v>
       </c>
       <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="4"/>
+        <v>326</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="4"/>
+        <v>1036</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>767</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>1346</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="7"/>
-        <v>1020</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="7"/>
-        <v>326</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="7"/>
-        <v>1036</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="7"/>
-        <v>620</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="7"/>
-        <v>767</v>
-      </c>
-      <c r="K39">
+        <v>1656</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="9"/>
-        <v>1346</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="10"/>
-        <v>1656</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="11"/>
         <v>1367</v>
       </c>
     </row>
@@ -1463,47 +1315,47 @@
         <v>13659</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ref="D41:J42" si="12">SUBSTITUTE(D31,",","")</f>
+        <f t="shared" ref="D41:J42" si="9">SUBSTITUTE(D31,",","")</f>
         <v>1874</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>9378</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2534</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2639</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1238</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="K41">
+        <f t="shared" si="5"/>
+        <v>15533</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>11912</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>3877</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="8"/>
-        <v>15533</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="9"/>
-        <v>11912</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="10"/>
-        <v>3877</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="11"/>
         <v>394</v>
       </c>
     </row>
@@ -1513,53 +1365,53 @@
         <v>4287</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>933</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6546</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1989</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5049</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2952</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1712</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2498</v>
       </c>
       <c r="K42">
+        <f t="shared" si="5"/>
+        <v>5220</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>8535</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>8001</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="8"/>
-        <v>5220</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="9"/>
-        <v>8535</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="10"/>
-        <v>8001</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="11"/>
         <v>4210</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:14">
@@ -1676,35 +1528,35 @@
     </row>
     <row r="49" spans="2:13">
       <c r="C49" s="5">
-        <f t="shared" ref="C49:C52" si="13">(C39/K39)</f>
+        <f t="shared" ref="C49:C52" si="10">(C39/K39)</f>
         <v>0.77685950413223137</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" ref="D49:E49" si="14">(D39/K39)</f>
+        <f t="shared" ref="D49:E49" si="11">(D39/K39)</f>
         <v>0.2231404958677686</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.7578008915304606</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" ref="F49:G49" si="15">(F39/L39)</f>
+        <f t="shared" ref="F49:G49" si="12">(F39/L39)</f>
         <v>0.24219910846953938</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.62560386473429952</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" ref="H49:I49" si="16">(H39/M39)</f>
+        <f t="shared" ref="H49:I49" si="13">(H39/M39)</f>
         <v>0.37439613526570048</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.43891733723482079</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" ref="J49:J52" si="17">(J39/N39)</f>
+        <f t="shared" ref="J49:J52" si="14">(J39/N39)</f>
         <v>0.56108266276517926</v>
       </c>
       <c r="M49" s="9"/>
@@ -1721,75 +1573,75 @@
     </row>
     <row r="51" spans="2:13">
       <c r="C51" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.87935363419815871</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" ref="D51:E51" si="18">(D41/K41)</f>
+        <f t="shared" ref="D51:E51" si="15">(D41/K41)</f>
         <v>0.12064636580184124</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.78727333781061115</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" ref="F51:G51" si="19">(F41/L41)</f>
+        <f t="shared" ref="F51:G51" si="16">(F41/L41)</f>
         <v>0.21272666218938885</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.68068093887026049</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" ref="H51:I51" si="20">(H41/M41)</f>
+        <f t="shared" ref="H51:I51" si="17">(H41/M41)</f>
         <v>0.31931906112973951</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.53299492385786806</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.46700507614213199</v>
       </c>
     </row>
     <row r="52" spans="2:13">
       <c r="C52" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.82126436781609191</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" ref="D52:E52" si="21">(D42/K42)</f>
+        <f t="shared" ref="D52:E52" si="18">(D42/K42)</f>
         <v>0.17873563218390803</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0.76695957820738137</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" ref="F52:G52" si="22">(F42/L42)</f>
+        <f t="shared" ref="F52:G52" si="19">(F42/L42)</f>
         <v>0.23304042179261863</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.63104611923509557</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" ref="H52:I52" si="23">(H42/M42)</f>
+        <f t="shared" ref="H52:I52" si="20">(H42/M42)</f>
         <v>0.36895388076490437</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.40665083135391922</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.59334916864608078</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:13">
@@ -1808,233 +1660,233 @@
         <v>13,745 (88.2%)</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56:J56" si="24">CONCATENATE(D25," (",ROUND(D45*100,1),"%)")</f>
+        <f t="shared" ref="D56:J56" si="21">CONCATENATE(D25," (",ROUND(D45*100,1),"%)")</f>
         <v>1,831 (11.8%)</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>9,673 (78.9%)</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>2,590 (21.1%)</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>2,919 (65.4%)</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>1,545 (34.6%)</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>232 (36%)</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>412 (64%)</v>
       </c>
     </row>
     <row r="57" spans="2:13">
       <c r="B57" t="str">
-        <f t="shared" ref="B57:B63" si="25">B16</f>
+        <f t="shared" ref="B57:B63" si="22">B16</f>
         <v>  Not received</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:J57" si="26">CONCATENATE(C26," (",ROUND(C46*100,1),"%)")</f>
+        <f t="shared" ref="C57:J57" si="23">CONCATENATE(C26," (",ROUND(C46*100,1),"%)")</f>
         <v>4,201 (81.1%)</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>976 (18.9%)</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6,251 (76.4%)</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1,933 (23.6%)</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4,769 (64.3%)</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2,645 (35.7%)</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1,690 (42.7%)</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2,270 (57.3%)</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Renal Replacement Therapy</v>
       </c>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>  Received</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ref="C59:J59" si="27">CONCATENATE(C28," (",ROUND(C48*100,1),"%)")</f>
+        <f t="shared" ref="C59:J59" si="24">CONCATENATE(C28," (",ROUND(C48*100,1),"%)")</f>
         <v>17,664 (86.6%)</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>2,726 (13.4%)</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>14,904 (78%)</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>4,197 (22%)</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>6,652 (65.1%)</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>3,570 (34.9%)</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1,322 (40.8%)</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1,915 (59.2%)</v>
       </c>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" t="str">
+        <f t="shared" si="22"/>
+        <v>  Not received</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ref="C60:J60" si="25">CONCATENATE(C29," (",ROUND(C49*100,1),"%)")</f>
+        <v>282 (77.7%)</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="25"/>
-        <v>  Not received</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" ref="C60:J60" si="28">CONCATENATE(C29," (",ROUND(C49*100,1),"%)")</f>
-        <v>282 (77.7%)</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="28"/>
         <v>81 (22.3%)</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1,020 (75.8%)</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>326 (24.2%)</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>1,036 (62.6%)</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>620 (37.4%)</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>600 (43.9%)</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>767 (56.1%)</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Vasopressor(s)</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>  Received</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ref="C62:J62" si="29">CONCATENATE(C31," (",ROUND(C51*100,1),"%)")</f>
+        <f t="shared" ref="C62:J62" si="26">CONCATENATE(C31," (",ROUND(C51*100,1),"%)")</f>
         <v>13,659 (87.9%)</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1,874 (12.1%)</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>9,378 (78.7%)</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>2,534 (21.3%)</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>2,639 (68.1%)</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1,238 (31.9%)</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>210 (53.3%)</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>184 (46.7%)</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>  Not received</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:J63" si="30">CONCATENATE(C32," (",ROUND(C52*100,1),"%)")</f>
+        <f t="shared" ref="C63:J63" si="27">CONCATENATE(C32," (",ROUND(C52*100,1),"%)")</f>
         <v>4,287 (82.1%)</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>933 (17.9%)</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>6,546 (76.7%)</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1,989 (23.3%)</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>5,049 (63.1%)</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>2,952 (36.9%)</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1,712 (40.7%)</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>2,498 (59.3%)</v>
       </c>
     </row>

--- a/results/table1/table_sanity.xlsx
+++ b/results/table1/table_sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Projekte/Boston Celi/1 Causal Inference/Race Interventions/mit-tmle/results/table1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4565D9-8B9F-E447-8E8F-76E7B22D53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7BB55-5E63-E74F-B4B9-63273A5B04AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,45 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
-    <t>4,287 (23.9%)</t>
-  </si>
-  <si>
-    <t>933 (33.2%)</t>
-  </si>
-  <si>
-    <t>6,546 (41.1%)</t>
-  </si>
-  <si>
-    <t>1,989 (44.0%)</t>
-  </si>
-  <si>
-    <t>5,049 (65.7%)</t>
-  </si>
-  <si>
-    <t>2,952 (70.5%)</t>
-  </si>
-  <si>
-    <t>1,712 (89.1%)</t>
-  </si>
-  <si>
-    <t>2,498 (93.1%)</t>
-  </si>
-  <si>
-    <t>Mechanical Ventilation</t>
-  </si>
-  <si>
-    <t>  Received</t>
-  </si>
-  <si>
-    <t>  Not received</t>
-  </si>
-  <si>
-    <t>Renal Replacement Therapy</t>
-  </si>
-  <si>
-    <t>Vasopressor(s)</t>
-  </si>
-  <si>
     <t>No ()</t>
   </si>
   <si>
@@ -86,124 +47,163 @@
     <t>Table</t>
   </si>
   <si>
-    <t>13,745 (76.6%)</t>
-  </si>
-  <si>
-    <t>1,831 (65.2%)</t>
-  </si>
-  <si>
-    <t>9,673 (60.7%)</t>
-  </si>
-  <si>
-    <t>2,590 (57.3%)</t>
-  </si>
-  <si>
-    <t>2,919 (38.0%)</t>
-  </si>
-  <si>
-    <t>1,545 (36.9%)</t>
-  </si>
-  <si>
-    <t>232 (12.1%)</t>
-  </si>
-  <si>
-    <t>412 (15.4%)</t>
-  </si>
-  <si>
-    <t>4,201 (23.4%)</t>
-  </si>
-  <si>
-    <t>976 (34.8%)</t>
-  </si>
-  <si>
-    <t>6,251 (39.3%)</t>
-  </si>
-  <si>
-    <t>1,933 (42.7%)</t>
-  </si>
-  <si>
-    <t>4,769 (62.0%)</t>
-  </si>
-  <si>
-    <t>2,645 (63.1%)</t>
-  </si>
-  <si>
-    <t>1,690 (87.9%)</t>
-  </si>
-  <si>
-    <t>2,270 (84.6%)</t>
-  </si>
-  <si>
-    <t>17,664 (98.4%)</t>
-  </si>
-  <si>
-    <t>2,726 (97.1%)</t>
-  </si>
-  <si>
-    <t>14,904 (93.6%)</t>
-  </si>
-  <si>
-    <t>4,197 (92.8%)</t>
-  </si>
-  <si>
-    <t>6,652 (86.5%)</t>
-  </si>
-  <si>
-    <t>3,570 (85.2%)</t>
-  </si>
-  <si>
-    <t>1,322 (68.8%)</t>
-  </si>
-  <si>
-    <t>1,915 (71.4%)</t>
-  </si>
-  <si>
-    <t>282 (1.6%)</t>
-  </si>
-  <si>
-    <t>81 (2.9%)</t>
-  </si>
-  <si>
-    <t>1,020 (6.4%)</t>
-  </si>
-  <si>
-    <t>326 (7.2%)</t>
-  </si>
-  <si>
-    <t>1,036 (13.5%)</t>
-  </si>
-  <si>
-    <t>620 (14.8%)</t>
-  </si>
-  <si>
-    <t>600 (31.2%)</t>
-  </si>
-  <si>
-    <t>767 (28.6%)</t>
-  </si>
-  <si>
-    <t>13,659 (76.1%)</t>
-  </si>
-  <si>
-    <t>1,874 (66.8%)</t>
-  </si>
-  <si>
-    <t>9,378 (58.9%)</t>
-  </si>
-  <si>
-    <t>2,534 (56.0%)</t>
-  </si>
-  <si>
-    <t>2,639 (34.3%)</t>
-  </si>
-  <si>
-    <t>1,238 (29.5%)</t>
-  </si>
-  <si>
-    <t>210 (10.9%)</t>
-  </si>
-  <si>
-    <t>184 (6.9%)</t>
+    <t>Mechanical ventilation</t>
+  </si>
+  <si>
+    <t>  0</t>
+  </si>
+  <si>
+    <t>  1</t>
+  </si>
+  <si>
+    <t>Renal replacement therapy</t>
+  </si>
+  <si>
+    <t>Vasopressor</t>
+  </si>
+  <si>
+    <t>4,155 (70.2%)</t>
+  </si>
+  <si>
+    <t>2,123 (77.3%)</t>
+  </si>
+  <si>
+    <t>1,034 (36.8%)</t>
+  </si>
+  <si>
+    <t>1,143 (57.8%)</t>
+  </si>
+  <si>
+    <t>250 (23.2%)</t>
+  </si>
+  <si>
+    <t>456 (42.7%)</t>
+  </si>
+  <si>
+    <t>99 (9.3%)</t>
+  </si>
+  <si>
+    <t>359 (20.2%)</t>
+  </si>
+  <si>
+    <t>1,767 (29.8%)</t>
+  </si>
+  <si>
+    <t>625 (22.7%)</t>
+  </si>
+  <si>
+    <t>1,774 (63.2%)</t>
+  </si>
+  <si>
+    <t>834 (42.2%)</t>
+  </si>
+  <si>
+    <t>829 (76.8%)</t>
+  </si>
+  <si>
+    <t>613 (57.3%)</t>
+  </si>
+  <si>
+    <t>960 (90.7%)</t>
+  </si>
+  <si>
+    <t>1,422 (79.8%)</t>
+  </si>
+  <si>
+    <t>5,754 (97.2%)</t>
+  </si>
+  <si>
+    <t>2,520 (91.7%)</t>
+  </si>
+  <si>
+    <t>2,679 (95.4%)</t>
+  </si>
+  <si>
+    <t>1,784 (90.2%)</t>
+  </si>
+  <si>
+    <t>1,004 (93.0%)</t>
+  </si>
+  <si>
+    <t>942 (88.1%)</t>
+  </si>
+  <si>
+    <t>895 (84.5%)</t>
+  </si>
+  <si>
+    <t>1,424 (80.0%)</t>
+  </si>
+  <si>
+    <t>168 (2.8%)</t>
+  </si>
+  <si>
+    <t>228 (8.3%)</t>
+  </si>
+  <si>
+    <t>129 (4.6%)</t>
+  </si>
+  <si>
+    <t>193 (9.8%)</t>
+  </si>
+  <si>
+    <t>75 (7.0%)</t>
+  </si>
+  <si>
+    <t>127 (11.9%)</t>
+  </si>
+  <si>
+    <t>164 (15.5%)</t>
+  </si>
+  <si>
+    <t>357 (20.0%)</t>
+  </si>
+  <si>
+    <t>3,420 (57.8%)</t>
+  </si>
+  <si>
+    <t>1,834 (66.7%)</t>
+  </si>
+  <si>
+    <t>1,345 (47.9%)</t>
+  </si>
+  <si>
+    <t>1,117 (56.5%)</t>
+  </si>
+  <si>
+    <t>471 (43.7%)</t>
+  </si>
+  <si>
+    <t>478 (44.7%)</t>
+  </si>
+  <si>
+    <t>295 (27.9%)</t>
+  </si>
+  <si>
+    <t>525 (29.5%)</t>
+  </si>
+  <si>
+    <t>2,502 (42.2%)</t>
+  </si>
+  <si>
+    <t>914 (33.3%)</t>
+  </si>
+  <si>
+    <t>1,463 (52.1%)</t>
+  </si>
+  <si>
+    <t>860 (43.5%)</t>
+  </si>
+  <si>
+    <t>608 (56.3%)</t>
+  </si>
+  <si>
+    <t>591 (55.3%)</t>
+  </si>
+  <si>
+    <t>764 (72.1%)</t>
+  </si>
+  <si>
+    <t>1,256 (70.5%)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,18 +233,6 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -298,26 +286,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7866DF-60D3-8B45-B772-A83C43B16640}">
   <dimension ref="B7:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -635,1259 +620,1259 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:13">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="25">
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="48">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" ht="32">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="32">
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="48">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" ht="28">
-      <c r="B15" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" ht="32">
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="32">
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="32">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="32">
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="48">
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="2:10" ht="28">
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="32">
-      <c r="B19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" ht="32">
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="32">
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:10" ht="28">
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="2:10" ht="32">
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="32">
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" t="str">
         <f>LEFT(C15,FIND("(",C15)-2)</f>
-        <v>13,745</v>
+        <v>4,155</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ref="D25:J26" si="0">LEFT(D15,FIND("(",D15)-2)</f>
-        <v>1,831</v>
+        <v>2,123</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>9,673</v>
+        <v>1,034</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>2,590</v>
+        <v>1,143</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>2,919</v>
+        <v>250</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>1,545</v>
+        <v>456</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="C26" t="str">
         <f>LEFT(C16,FIND("(",C16)-2)</f>
-        <v>4,201</v>
+        <v>1,767</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>6,251</v>
+        <v>1,774</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>1,933</v>
+        <v>834</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>4,769</v>
+        <v>829</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>2,645</v>
+        <v>613</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>1,690</v>
+        <v>960</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>2,270</v>
+        <v>1,422</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="C28" t="str">
         <f>LEFT(C18,FIND("(",C18)-2)</f>
-        <v>17,664</v>
+        <v>5,754</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:J29" si="1">LEFT(D18,FIND("(",D18)-2)</f>
-        <v>2,726</v>
+        <v>2,520</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v>14,904</v>
+        <v>2,679</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>4,197</v>
+        <v>1,784</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>6,652</v>
+        <v>1,004</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>3,570</v>
+        <v>942</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>1,322</v>
+        <v>895</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
-        <v>1,915</v>
+        <v>1,424</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="C29" t="str">
         <f>LEFT(C19,FIND("(",C19)-2)</f>
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
-        <v>1,020</v>
+        <v>129</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>1,036</v>
+        <v>75</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>127</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>164</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
-        <v>767</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="C31" t="str">
         <f>LEFT(C21,FIND("(",C21)-2)</f>
-        <v>13,659</v>
+        <v>3,420</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ref="D31:J32" si="2">LEFT(D21,FIND("(",D21)-2)</f>
-        <v>1,874</v>
+        <v>1,834</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
-        <v>9,378</v>
+        <v>1,345</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
-        <v>2,534</v>
+        <v>1,117</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>2,639</v>
+        <v>471</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
-        <v>1,238</v>
+        <v>478</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="C32" t="str">
         <f>LEFT(C22,FIND("(",C22)-2)</f>
-        <v>4,287</v>
+        <v>2,502</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
-        <v>6,546</v>
+        <v>1,463</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
-        <v>1,989</v>
+        <v>860</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>5,049</v>
+        <v>608</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
-        <v>2,952</v>
+        <v>591</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>1,712</v>
+        <v>764</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="2"/>
-        <v>2,498</v>
+        <v>1,256</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:14">
       <c r="C35" t="str">
         <f>SUBSTITUTE(C25,",","")</f>
-        <v>13745</v>
+        <v>4155</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ref="D35:J36" si="3">SUBSTITUTE(D25,",","")</f>
-        <v>1831</v>
+        <v>2123</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="3"/>
-        <v>9673</v>
+        <v>1034</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="3"/>
-        <v>2590</v>
+        <v>1143</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="3"/>
-        <v>2919</v>
+        <v>250</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>1545</v>
+        <v>456</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="K35">
         <f>SUM(C35+D35)</f>
-        <v>15576</v>
+        <v>6278</v>
       </c>
       <c r="L35">
         <f>SUM(E35+F35)</f>
-        <v>12263</v>
+        <v>2177</v>
       </c>
       <c r="M35">
         <f>SUM(G35+H35)</f>
-        <v>4464</v>
+        <v>706</v>
       </c>
       <c r="N35">
         <f>SUM(I35+J35)</f>
-        <v>644</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="C36" t="str">
         <f>SUBSTITUTE(C26,",","")</f>
-        <v>4201</v>
+        <v>1767</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="3"/>
-        <v>6251</v>
+        <v>1774</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="3"/>
-        <v>1933</v>
+        <v>834</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="3"/>
-        <v>4769</v>
+        <v>829</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>2645</v>
+        <v>613</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="3"/>
-        <v>1690</v>
+        <v>960</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>2270</v>
+        <v>1422</v>
       </c>
       <c r="K36">
         <f>SUM(C36+D36)</f>
-        <v>5177</v>
+        <v>2392</v>
       </c>
       <c r="L36">
         <f>SUM(E36+F36)</f>
-        <v>8184</v>
+        <v>2608</v>
       </c>
       <c r="M36">
         <f>SUM(G36+H36)</f>
-        <v>7414</v>
+        <v>1442</v>
       </c>
       <c r="N36">
         <f>SUM(I36+J36)</f>
-        <v>3960</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="38" spans="2:14">
       <c r="C38" t="str">
         <f>SUBSTITUTE(C28,",","")</f>
-        <v>17664</v>
+        <v>5754</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ref="D38:J39" si="4">SUBSTITUTE(D28,",","")</f>
-        <v>2726</v>
+        <v>2520</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="4"/>
-        <v>14904</v>
+        <v>2679</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>4197</v>
+        <v>1784</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="4"/>
-        <v>6652</v>
+        <v>1004</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
-        <v>3570</v>
+        <v>942</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="4"/>
-        <v>1322</v>
+        <v>895</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="4"/>
-        <v>1915</v>
+        <v>1424</v>
       </c>
       <c r="K38">
         <f t="shared" ref="K38:K42" si="5">SUM(C38+D38)</f>
-        <v>20390</v>
+        <v>8274</v>
       </c>
       <c r="L38">
         <f t="shared" ref="L38:L42" si="6">SUM(E38+F38)</f>
-        <v>19101</v>
+        <v>4463</v>
       </c>
       <c r="M38">
         <f t="shared" ref="M38:M42" si="7">SUM(G38+H38)</f>
-        <v>10222</v>
+        <v>1946</v>
       </c>
       <c r="N38">
         <f t="shared" ref="N38:N42" si="8">SUM(I38+J38)</f>
-        <v>3237</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="C39" t="str">
         <f>SUBSTITUTE(C29,",","")</f>
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="4"/>
-        <v>1020</v>
+        <v>129</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="4"/>
-        <v>1036</v>
+        <v>75</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
-        <v>620</v>
+        <v>127</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>164</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="4"/>
-        <v>767</v>
+        <v>357</v>
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="L39">
         <f t="shared" si="6"/>
-        <v>1346</v>
+        <v>322</v>
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>1656</v>
+        <v>202</v>
       </c>
       <c r="N39">
         <f t="shared" si="8"/>
-        <v>1367</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" t="str">
         <f>SUBSTITUTE(C31,",","")</f>
-        <v>13659</v>
+        <v>3420</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ref="D41:J42" si="9">SUBSTITUTE(D31,",","")</f>
-        <v>1874</v>
+        <v>1834</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="9"/>
-        <v>9378</v>
+        <v>1345</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="9"/>
-        <v>2534</v>
+        <v>1117</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="9"/>
-        <v>2639</v>
+        <v>471</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="9"/>
-        <v>1238</v>
+        <v>478</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="9"/>
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="9"/>
-        <v>184</v>
+        <v>525</v>
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>15533</v>
+        <v>5254</v>
       </c>
       <c r="L41">
         <f t="shared" si="6"/>
-        <v>11912</v>
+        <v>2462</v>
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>3877</v>
+        <v>949</v>
       </c>
       <c r="N41">
         <f t="shared" si="8"/>
-        <v>394</v>
+        <v>820</v>
       </c>
     </row>
     <row r="42" spans="2:14">
       <c r="C42" t="str">
         <f>SUBSTITUTE(C32,",","")</f>
-        <v>4287</v>
+        <v>2502</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="9"/>
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="9"/>
-        <v>6546</v>
+        <v>1463</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="9"/>
-        <v>1989</v>
+        <v>860</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="9"/>
-        <v>5049</v>
+        <v>608</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="9"/>
-        <v>2952</v>
+        <v>591</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="9"/>
-        <v>1712</v>
+        <v>764</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="9"/>
-        <v>2498</v>
+        <v>1256</v>
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>5220</v>
+        <v>3416</v>
       </c>
       <c r="L42">
         <f t="shared" si="6"/>
-        <v>8535</v>
+        <v>2323</v>
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>8001</v>
+        <v>1199</v>
       </c>
       <c r="N42">
         <f t="shared" si="8"/>
-        <v>4210</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f>(C35/K35)</f>
-        <v>0.88244735490498205</v>
-      </c>
-      <c r="D45" s="5">
+        <v>0.66183497929276836</v>
+      </c>
+      <c r="D45" s="4">
         <f>(D35/K35)</f>
-        <v>0.11755264509501798</v>
-      </c>
-      <c r="E45" s="5">
+        <v>0.33816502070723159</v>
+      </c>
+      <c r="E45" s="4">
         <f>(E35/L35)</f>
-        <v>0.78879556389138061</v>
-      </c>
-      <c r="F45" s="5">
+        <v>0.47496554892053283</v>
+      </c>
+      <c r="F45" s="4">
         <f>(F35/L35)</f>
-        <v>0.21120443610861941</v>
-      </c>
-      <c r="G45" s="5">
+        <v>0.52503445107946711</v>
+      </c>
+      <c r="G45" s="4">
         <f>(G35/M35)</f>
-        <v>0.65389784946236562</v>
-      </c>
-      <c r="H45" s="5">
+        <v>0.35410764872521244</v>
+      </c>
+      <c r="H45" s="4">
         <f>(H35/M35)</f>
-        <v>0.34610215053763443</v>
-      </c>
-      <c r="I45" s="5">
+        <v>0.6458923512747875</v>
+      </c>
+      <c r="I45" s="4">
         <f>(I35/N35)</f>
-        <v>0.36024844720496896</v>
-      </c>
-      <c r="J45" s="5">
+        <v>0.21615720524017468</v>
+      </c>
+      <c r="J45" s="4">
         <f>(J35/N35)</f>
-        <v>0.63975155279503104</v>
+        <v>0.78384279475982532</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f>(C36/K36)</f>
-        <v>0.8114738265404674</v>
-      </c>
-      <c r="D46" s="5">
+        <v>0.73871237458193983</v>
+      </c>
+      <c r="D46" s="4">
         <f>(D36/K36)</f>
-        <v>0.18852617345953254</v>
-      </c>
-      <c r="E46" s="5">
+        <v>0.26128762541806022</v>
+      </c>
+      <c r="E46" s="4">
         <f>(E36/L36)</f>
-        <v>0.76380742913000976</v>
-      </c>
-      <c r="F46" s="5">
+        <v>0.68021472392638038</v>
+      </c>
+      <c r="F46" s="4">
         <f>(F36/L36)</f>
-        <v>0.23619257086999024</v>
-      </c>
-      <c r="G46" s="5">
+        <v>0.31978527607361962</v>
+      </c>
+      <c r="G46" s="4">
         <f>(G36/M36)</f>
-        <v>0.64324251416239542</v>
-      </c>
-      <c r="H46" s="5">
+        <v>0.57489597780859913</v>
+      </c>
+      <c r="H46" s="4">
         <f>(H36/M36)</f>
-        <v>0.35675748583760453</v>
-      </c>
-      <c r="I46" s="5">
+        <v>0.42510402219140081</v>
+      </c>
+      <c r="I46" s="4">
         <f>(I36/N36)</f>
-        <v>0.42676767676767674</v>
-      </c>
-      <c r="J46" s="5">
+        <v>0.40302267002518893</v>
+      </c>
+      <c r="J46" s="4">
         <f>(J36/N36)</f>
-        <v>0.5732323232323232</v>
+        <v>0.59697732997481112</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f>(C38/K38)</f>
-        <v>0.86630701324178516</v>
-      </c>
-      <c r="D48" s="5">
+        <v>0.69543147208121825</v>
+      </c>
+      <c r="D48" s="4">
         <f>(D38/K38)</f>
-        <v>0.13369298675821481</v>
-      </c>
-      <c r="E48" s="5">
+        <v>0.30456852791878175</v>
+      </c>
+      <c r="E48" s="4">
         <f>(E38/L38)</f>
-        <v>0.78027328412125019</v>
-      </c>
-      <c r="F48" s="5">
+        <v>0.60026887743670176</v>
+      </c>
+      <c r="F48" s="4">
         <f>(F38/L38)</f>
-        <v>0.21972671587874981</v>
-      </c>
-      <c r="G48" s="5">
+        <v>0.39973112256329824</v>
+      </c>
+      <c r="G48" s="4">
         <f>(G38/M38)</f>
-        <v>0.65075327724515752</v>
-      </c>
-      <c r="H48" s="5">
+        <v>0.51593011305241521</v>
+      </c>
+      <c r="H48" s="4">
         <f>(H38/M38)</f>
-        <v>0.34924672275484248</v>
-      </c>
-      <c r="I48" s="5">
+        <v>0.48406988694758479</v>
+      </c>
+      <c r="I48" s="4">
         <f>(I38/N38)</f>
-        <v>0.40840284213778189</v>
-      </c>
-      <c r="J48" s="5">
+        <v>0.38594221647261751</v>
+      </c>
+      <c r="J48" s="4">
         <f>(J38/N38)</f>
-        <v>0.59159715786221811</v>
+        <v>0.61405778352738249</v>
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <f t="shared" ref="C49:C52" si="10">(C39/K39)</f>
-        <v>0.77685950413223137</v>
-      </c>
-      <c r="D49" s="5">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="D49" s="4">
         <f t="shared" ref="D49:E49" si="11">(D39/K39)</f>
-        <v>0.2231404958677686</v>
-      </c>
-      <c r="E49" s="5">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="E49" s="4">
         <f t="shared" si="11"/>
-        <v>0.7578008915304606</v>
-      </c>
-      <c r="F49" s="5">
+        <v>0.40062111801242234</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" ref="F49:G49" si="12">(F39/L39)</f>
-        <v>0.24219910846953938</v>
-      </c>
-      <c r="G49" s="5">
+        <v>0.59937888198757761</v>
+      </c>
+      <c r="G49" s="4">
         <f t="shared" si="12"/>
-        <v>0.62560386473429952</v>
-      </c>
-      <c r="H49" s="5">
+        <v>0.37128712871287128</v>
+      </c>
+      <c r="H49" s="4">
         <f t="shared" ref="H49:I49" si="13">(H39/M39)</f>
-        <v>0.37439613526570048</v>
-      </c>
-      <c r="I49" s="5">
+        <v>0.62871287128712872</v>
+      </c>
+      <c r="I49" s="4">
         <f t="shared" si="13"/>
-        <v>0.43891733723482079</v>
-      </c>
-      <c r="J49" s="5">
+        <v>0.31477927063339733</v>
+      </c>
+      <c r="J49" s="4">
         <f t="shared" ref="J49:J52" si="14">(J39/N39)</f>
-        <v>0.56108266276517926</v>
-      </c>
-      <c r="M49" s="9"/>
+        <v>0.68522072936660272</v>
+      </c>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <f t="shared" si="10"/>
-        <v>0.87935363419815871</v>
-      </c>
-      <c r="D51" s="5">
+        <v>0.65093262276360864</v>
+      </c>
+      <c r="D51" s="4">
         <f t="shared" ref="D51:E51" si="15">(D41/K41)</f>
-        <v>0.12064636580184124</v>
-      </c>
-      <c r="E51" s="5">
+        <v>0.34906737723639131</v>
+      </c>
+      <c r="E51" s="4">
         <f t="shared" si="15"/>
-        <v>0.78727333781061115</v>
-      </c>
-      <c r="F51" s="5">
+        <v>0.54630381803411865</v>
+      </c>
+      <c r="F51" s="4">
         <f t="shared" ref="F51:G51" si="16">(F41/L41)</f>
-        <v>0.21272666218938885</v>
-      </c>
-      <c r="G51" s="5">
+        <v>0.45369618196588141</v>
+      </c>
+      <c r="G51" s="4">
         <f t="shared" si="16"/>
-        <v>0.68068093887026049</v>
-      </c>
-      <c r="H51" s="5">
+        <v>0.49631190727081137</v>
+      </c>
+      <c r="H51" s="4">
         <f t="shared" ref="H51:I51" si="17">(H41/M41)</f>
-        <v>0.31931906112973951</v>
-      </c>
-      <c r="I51" s="5">
+        <v>0.50368809272918857</v>
+      </c>
+      <c r="I51" s="4">
         <f t="shared" si="17"/>
-        <v>0.53299492385786806</v>
-      </c>
-      <c r="J51" s="5">
+        <v>0.3597560975609756</v>
+      </c>
+      <c r="J51" s="4">
         <f t="shared" si="14"/>
-        <v>0.46700507614213199</v>
+        <v>0.6402439024390244</v>
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f t="shared" si="10"/>
-        <v>0.82126436781609191</v>
-      </c>
-      <c r="D52" s="5">
+        <v>0.73243559718969553</v>
+      </c>
+      <c r="D52" s="4">
         <f t="shared" ref="D52:E52" si="18">(D42/K42)</f>
-        <v>0.17873563218390803</v>
-      </c>
-      <c r="E52" s="5">
+        <v>0.26756440281030447</v>
+      </c>
+      <c r="E52" s="4">
         <f t="shared" si="18"/>
-        <v>0.76695957820738137</v>
-      </c>
-      <c r="F52" s="5">
+        <v>0.62978906586310801</v>
+      </c>
+      <c r="F52" s="4">
         <f t="shared" ref="F52:G52" si="19">(F42/L42)</f>
-        <v>0.23304042179261863</v>
-      </c>
-      <c r="G52" s="5">
+        <v>0.37021093413689193</v>
+      </c>
+      <c r="G52" s="4">
         <f t="shared" si="19"/>
-        <v>0.63104611923509557</v>
-      </c>
-      <c r="H52" s="5">
+        <v>0.50708924103419517</v>
+      </c>
+      <c r="H52" s="4">
         <f t="shared" ref="H52:I52" si="20">(H42/M42)</f>
-        <v>0.36895388076490437</v>
-      </c>
-      <c r="I52" s="5">
+        <v>0.49291075896580483</v>
+      </c>
+      <c r="I52" s="4">
         <f t="shared" si="20"/>
-        <v>0.40665083135391922</v>
-      </c>
-      <c r="J52" s="5">
+        <v>0.37821782178217822</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="14"/>
-        <v>0.59334916864608078</v>
+        <v>0.62178217821782178</v>
       </c>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="str">
         <f>B14</f>
-        <v>Mechanical Ventilation</v>
+        <v>Mechanical ventilation</v>
       </c>
     </row>
     <row r="56" spans="2:13">
       <c r="B56" t="str">
         <f>B15</f>
-        <v>  Received</v>
+        <v>  0</v>
       </c>
       <c r="C56" t="str">
         <f>CONCATENATE(C25," (",ROUND(C45*100,1),"%)")</f>
-        <v>13,745 (88.2%)</v>
+        <v>4,155 (66.2%)</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ref="D56:J56" si="21">CONCATENATE(D25," (",ROUND(D45*100,1),"%)")</f>
-        <v>1,831 (11.8%)</v>
+        <v>2,123 (33.8%)</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="21"/>
-        <v>9,673 (78.9%)</v>
+        <v>1,034 (47.5%)</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="21"/>
-        <v>2,590 (21.1%)</v>
+        <v>1,143 (52.5%)</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="21"/>
-        <v>2,919 (65.4%)</v>
+        <v>250 (35.4%)</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="21"/>
-        <v>1,545 (34.6%)</v>
+        <v>456 (64.6%)</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="21"/>
-        <v>232 (36%)</v>
+        <v>99 (21.6%)</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="21"/>
-        <v>412 (64%)</v>
+        <v>359 (78.4%)</v>
       </c>
     </row>
     <row r="57" spans="2:13">
       <c r="B57" t="str">
         <f t="shared" ref="B57:B63" si="22">B16</f>
-        <v>  Not received</v>
+        <v>  1</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ref="C57:J57" si="23">CONCATENATE(C26," (",ROUND(C46*100,1),"%)")</f>
-        <v>4,201 (81.1%)</v>
+        <v>1,767 (73.9%)</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="23"/>
-        <v>976 (18.9%)</v>
+        <v>625 (26.1%)</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="23"/>
-        <v>6,251 (76.4%)</v>
+        <v>1,774 (68%)</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="23"/>
-        <v>1,933 (23.6%)</v>
+        <v>834 (32%)</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="23"/>
-        <v>4,769 (64.3%)</v>
+        <v>829 (57.5%)</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="23"/>
-        <v>2,645 (35.7%)</v>
+        <v>613 (42.5%)</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="23"/>
-        <v>1,690 (42.7%)</v>
+        <v>960 (40.3%)</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="23"/>
-        <v>2,270 (57.3%)</v>
+        <v>1,422 (59.7%)</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" t="str">
         <f t="shared" si="22"/>
-        <v>Renal Replacement Therapy</v>
+        <v>Renal replacement therapy</v>
       </c>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" t="str">
         <f t="shared" si="22"/>
-        <v>  Received</v>
+        <v>  0</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ref="C59:J59" si="24">CONCATENATE(C28," (",ROUND(C48*100,1),"%)")</f>
-        <v>17,664 (86.6%)</v>
+        <v>5,754 (69.5%)</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="24"/>
-        <v>2,726 (13.4%)</v>
+        <v>2,520 (30.5%)</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="24"/>
-        <v>14,904 (78%)</v>
+        <v>2,679 (60%)</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="24"/>
-        <v>4,197 (22%)</v>
+        <v>1,784 (40%)</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="24"/>
-        <v>6,652 (65.1%)</v>
+        <v>1,004 (51.6%)</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="24"/>
-        <v>3,570 (34.9%)</v>
+        <v>942 (48.4%)</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="24"/>
-        <v>1,322 (40.8%)</v>
+        <v>895 (38.6%)</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="24"/>
-        <v>1,915 (59.2%)</v>
+        <v>1,424 (61.4%)</v>
       </c>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" t="str">
         <f t="shared" si="22"/>
-        <v>  Not received</v>
+        <v>  1</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ref="C60:J60" si="25">CONCATENATE(C29," (",ROUND(C49*100,1),"%)")</f>
-        <v>282 (77.7%)</v>
+        <v>168 (42.4%)</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="25"/>
-        <v>81 (22.3%)</v>
+        <v>228 (57.6%)</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="25"/>
-        <v>1,020 (75.8%)</v>
+        <v>129 (40.1%)</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="25"/>
-        <v>326 (24.2%)</v>
+        <v>193 (59.9%)</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="25"/>
-        <v>1,036 (62.6%)</v>
+        <v>75 (37.1%)</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="25"/>
-        <v>620 (37.4%)</v>
+        <v>127 (62.9%)</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="25"/>
-        <v>600 (43.9%)</v>
+        <v>164 (31.5%)</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="25"/>
-        <v>767 (56.1%)</v>
+        <v>357 (68.5%)</v>
       </c>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" t="str">
         <f t="shared" si="22"/>
-        <v>Vasopressor(s)</v>
+        <v>Vasopressor</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="str">
         <f t="shared" si="22"/>
-        <v>  Received</v>
+        <v>  0</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ref="C62:J62" si="26">CONCATENATE(C31," (",ROUND(C51*100,1),"%)")</f>
-        <v>13,659 (87.9%)</v>
+        <v>3,420 (65.1%)</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="26"/>
-        <v>1,874 (12.1%)</v>
+        <v>1,834 (34.9%)</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="26"/>
-        <v>9,378 (78.7%)</v>
+        <v>1,345 (54.6%)</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="26"/>
-        <v>2,534 (21.3%)</v>
+        <v>1,117 (45.4%)</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="26"/>
-        <v>2,639 (68.1%)</v>
+        <v>471 (49.6%)</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="26"/>
-        <v>1,238 (31.9%)</v>
+        <v>478 (50.4%)</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="26"/>
-        <v>210 (53.3%)</v>
+        <v>295 (36%)</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="26"/>
-        <v>184 (46.7%)</v>
+        <v>525 (64%)</v>
       </c>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" t="str">
         <f t="shared" si="22"/>
-        <v>  Not received</v>
+        <v>  1</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ref="C63:J63" si="27">CONCATENATE(C32," (",ROUND(C52*100,1),"%)")</f>
-        <v>4,287 (82.1%)</v>
+        <v>2,502 (73.2%)</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="27"/>
-        <v>933 (17.9%)</v>
+        <v>914 (26.8%)</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="27"/>
-        <v>6,546 (76.7%)</v>
+        <v>1,463 (63%)</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="27"/>
-        <v>1,989 (23.3%)</v>
+        <v>860 (37%)</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="27"/>
-        <v>5,049 (63.1%)</v>
+        <v>608 (50.7%)</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="27"/>
-        <v>2,952 (36.9%)</v>
+        <v>591 (49.3%)</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="27"/>
-        <v>1,712 (40.7%)</v>
+        <v>764 (37.8%)</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="27"/>
-        <v>2,498 (59.3%)</v>
+        <v>1,256 (62.2%)</v>
       </c>
     </row>
   </sheetData>
